--- a/XLSX/PrimaryStudiesCoded.xlsx
+++ b/XLSX/PrimaryStudiesCoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173669\Documents\School\Master\SA Maryam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77248242-48BA-4B08-AD7C-8F783B7ED260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D998E2A-FCA0-46D5-9077-73E7D41E8C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15990" xr2:uid="{4AB5B8D6-8250-445F-9847-B0420D0045FB}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="24765" windowHeight="21000" xr2:uid="{4AB5B8D6-8250-445F-9847-B0420D0045FB}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimaryStudiesCoded" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,6 @@
     <t>https://doi.org/10.1016/j.infsof.2016.06.003</t>
   </si>
   <si>
-    <t>Intuition: ASO, experiential, LOEFF, pragmatic 
-Rationality:  CTR, HIEFF, RUL</t>
-  </si>
-  <si>
     <t>I-CON, I-EVO, I-FUNC</t>
   </si>
   <si>
@@ -223,9 +219,6 @@
     <t>https://doi.org/10.1109/ISESE.2005.1541832</t>
   </si>
   <si>
-    <t>Experiential</t>
-  </si>
-  <si>
     <t>I-FUNC</t>
   </si>
   <si>
@@ -279,10 +272,6 @@
     <t>https://doi.org/10.1109/ms.2020.3043663</t>
   </si>
   <si>
-    <t>Intuition: RAP, experiential
-Rationality: Slow, CTR, LOG, RUL</t>
-  </si>
-  <si>
     <t>I-CON, I-FUNC</t>
   </si>
   <si>
@@ -310,10 +299,6 @@
     <t>https://doi.org/10.1002/smr.1776</t>
   </si>
   <si>
-    <t>Intuition:ASO, HOL, reflective
- Rationality: CTX, CTR, RUL</t>
-  </si>
-  <si>
     <t>DMP</t>
   </si>
   <si>
@@ -330,10 +315,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1109/QRASA.2016.8</t>
-  </si>
-  <si>
-    <t>Intuition:ASO, HOL, reflective
-Rationality: CTX, CTR, RUL</t>
   </si>
   <si>
     <t>SE13</t>
@@ -466,9 +447,6 @@
     <t>https://doi.org/10.1007/978-3-319-65831-5_9</t>
   </si>
   <si>
-    <t>RAP, LOEFF, automatic, ASO</t>
-  </si>
-  <si>
     <t>SE22</t>
   </si>
   <si>
@@ -482,57 +460,79 @@
     <t>https://doi.org/10.1016/j.infsof.2007.02.010</t>
   </si>
   <si>
-    <t>Intuition: ASO, CTX, experiential, LOEFF, RAP 
+    <t>A-REQ</t>
+  </si>
+  <si>
+    <t>SE23</t>
+  </si>
+  <si>
+    <t>A Qualitative Empirical Evaluation of Design Decisions.</t>
+  </si>
+  <si>
+    <t>Zannier, C. andMaurer, F.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/1082983.1083124</t>
+  </si>
+  <si>
+    <t>SE24</t>
+  </si>
+  <si>
+    <t>Foundations of Agile Decision Making from Agile Mentors and Developers</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/11774129_2</t>
+  </si>
+  <si>
+    <t>SE25</t>
+  </si>
+  <si>
+    <t>Comparing Decision Making in Agile and Non-Agile Software Organizations</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-540-73101-6_1</t>
+  </si>
+  <si>
+    <t>SE26</t>
+  </si>
+  <si>
+    <t>Social Factors Relevant to Capturing Design Decisions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/SHARK-ADI.2007.12</t>
+  </si>
+  <si>
+    <t>CTR, HIEFF, RUL</t>
+  </si>
+  <si>
+    <t>Intuition: ASO, LOEFF, PRA 
+Rationality:  CTR, HIEFF, RUL</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>Intuition: RAP, ASO
+Rationality: SLO, CTR, LOG, RUL</t>
+  </si>
+  <si>
+    <t>Intuition:ASO, HOL, ANA
+ Rationality: CTX, CTR, RUL</t>
+  </si>
+  <si>
+    <t>Intuition:ASO, HOL, ANA
+Rationality: CTX, CTR, RUL</t>
+  </si>
+  <si>
+    <t>RAP, LOEFF, AUT, ASO</t>
+  </si>
+  <si>
+    <t>Intuition: ASO, CTX, LOEFF, RAP 
 Rationality: CTR, HIEFF, RUL</t>
   </si>
   <si>
-    <t>A-REQ</t>
-  </si>
-  <si>
-    <t>SE23</t>
-  </si>
-  <si>
-    <t>A Qualitative Empirical Evaluation of Design Decisions.</t>
-  </si>
-  <si>
-    <t>Zannier, C. andMaurer, F.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1145/1082983.1083124</t>
-  </si>
-  <si>
-    <t>SE24</t>
-  </si>
-  <si>
-    <t>Foundations of Agile Decision Making from Agile Mentors and Developers</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/11774129_2</t>
-  </si>
-  <si>
-    <t>Intuition: ASO, CTX, experiential, LOEFF, RAP
+    <t>Intuition: ASO, CTX, LOEFF, RAP
 Rationality: CTR, HIEFF, RUL</t>
-  </si>
-  <si>
-    <t>SE25</t>
-  </si>
-  <si>
-    <t>Comparing Decision Making in Agile and Non-Agile Software Organizations</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/978-3-540-73101-6_1</t>
-  </si>
-  <si>
-    <t>SE26</t>
-  </si>
-  <si>
-    <t>Social Factors Relevant to Capturing Design Decisions</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1109/SHARK-ADI.2007.12</t>
-  </si>
-  <si>
-    <t>CTR, HIEFF, RUL</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1236,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:N28"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,76 +1472,76 @@
         <v>50</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="I6" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="23">
         <v>2005</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="29"/>
       <c r="L7" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="23">
         <v>2012</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="26"/>
@@ -1557,67 +1557,67 @@
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="23">
         <v>2019</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="23">
         <v>2021</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>30</v>
@@ -1626,26 +1626,26 @@
         <v>21</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="23">
         <v>2010</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="26"/>
@@ -1661,184 +1661,184 @@
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="23">
         <v>2016</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="23">
         <v>2016</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="J13" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="23">
         <v>2016</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" s="23">
         <v>2011</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D16" s="23">
         <v>2008</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>20</v>
@@ -1850,28 +1850,28 @@
         <v>21</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" s="29"/>
       <c r="N16" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D17" s="23">
         <v>2017</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="26"/>
@@ -1880,39 +1880,39 @@
       <c r="J17" s="33"/>
       <c r="K17" s="29"/>
       <c r="L17" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="23">
         <v>2018</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="30" t="s">
@@ -1923,26 +1923,26 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D19" s="23">
         <v>2012</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>20</v>
@@ -1952,64 +1952,64 @@
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" s="23">
         <v>2013</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D21" s="23">
         <v>2016</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="26"/>
@@ -2027,95 +2027,95 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D22" s="23">
         <v>2017</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D23" s="23">
         <v>2007</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D24" s="23">
         <v>2005</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="26"/>
@@ -2126,111 +2126,111 @@
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M24" s="29"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D25" s="23">
         <v>2006</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D26" s="23">
         <v>2007</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D27" s="37">
         <v>2007</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="40" t="s">
         <v>20</v>
@@ -2265,32 +2265,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{52B2FD0D-4528-48F1-92D2-8791B5064389}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{1F681834-ADC5-48A7-8FCC-03AC07C53844}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{001429EA-D8A3-43D3-8A7B-F9EDD4243500}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{3BF1EF3B-AA1F-4C2A-A7E4-09EA70B9C964}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{89059C54-CC6B-4D87-A5CF-F4A442D2B926}"/>
-    <hyperlink ref="E18" r:id="rId6" xr:uid="{20030E7E-F473-4CF8-87CC-D9045F647210}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{15EFA9B4-A24A-4B14-956B-F9AF554A3A55}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{C88DDD14-272B-414C-B079-34FD6ADB73E2}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{D137FFB9-6075-4512-8E47-07CCB31160EA}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{C4A5D619-1083-4D57-88C2-414D94831E9C}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{0D410F14-1525-4FE9-B172-CF5AF3BA6A90}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{E2ECD9F3-D72F-41E5-BA4D-BFFC28932881}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{A5AC9305-C17E-491D-A70B-851DBB317FB6}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{EE9B3C43-AD49-41FC-A83F-F394FBB1DB51}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{5F7C937B-5B99-408E-A517-F51D773F3F69}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{983D84B1-633F-40FA-8C86-9083AB9DB385}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{C7CE2F2F-4A1D-4683-995C-EFA3D34A31C1}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{70267559-6D40-4EB4-B80E-5A626DBB683D}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{614298FA-C8D9-4F67-AB8C-FAACB13F3F5A}"/>
-    <hyperlink ref="E7" r:id="rId20" xr:uid="{03936281-9528-40A1-A44C-E019379D5562}"/>
-    <hyperlink ref="E5" r:id="rId21" xr:uid="{184D1B86-9BC4-486A-B43B-DCF19598F052}"/>
-    <hyperlink ref="E4" r:id="rId22" xr:uid="{D06ED424-4A87-4731-9183-1217F67A19DC}"/>
-    <hyperlink ref="E3" r:id="rId23" xr:uid="{4E72749C-9B75-455D-9015-A7C6D33C125F}"/>
-    <hyperlink ref="E2" r:id="rId24" xr:uid="{2C20132B-6A74-4B9C-B221-21FCB9887C23}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{886E9081-5918-4E68-916F-784895394572}"/>
-    <hyperlink ref="E6" r:id="rId26" xr:uid="{7DA4DF50-D189-465A-8F37-E226AAE2A6BA}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{22F101BE-AFDA-4501-92B5-51FE85666AD9}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{F7946080-162D-4364-BA2A-19010847F877}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{5DC2528D-8294-4448-9269-BE32E5946FB7}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{6F0C3DF9-BCE6-4A4C-97A0-76944103D84F}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{6E3977B2-54BB-4F6D-969F-9E770ACD89D1}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{E01D59DA-2750-4C02-966D-85E62AE1933B}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{6E33946F-0316-4BCF-A35F-CFA12635871F}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{9CDDF3FC-0BED-4E32-A2DA-B40228D3AF59}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{49212D84-5FD9-4074-BC04-AB76C6D38EB5}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{98502383-2B00-45CC-9192-21C3C93BB015}"/>
+    <hyperlink ref="E19" r:id="rId11" xr:uid="{187D7645-E9F2-4650-A8BE-743ABF179087}"/>
+    <hyperlink ref="E20" r:id="rId12" xr:uid="{6A38FF51-ECEF-414A-9FD7-B282A61199A7}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{3D7D142C-E494-4317-871A-E55884A36109}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{3FCC3F68-F82F-4EB1-8C4F-AB167ED27173}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{A657F7AD-FD53-4C66-92CA-4FE75DA1A574}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{6ED293A7-2053-4539-8778-4EDE4579D6FE}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{F4DD2605-F221-402C-B158-903297D5BC20}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{24545B28-985C-4D05-8CDC-7D200208634C}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{7A14D51E-8A9F-45B2-9AB1-471C67F84FDD}"/>
+    <hyperlink ref="E7" r:id="rId20" xr:uid="{9FA513C4-3F60-4728-9229-FD5355BB8590}"/>
+    <hyperlink ref="E5" r:id="rId21" xr:uid="{639E305E-16E6-4808-9623-FAF5117CCAFA}"/>
+    <hyperlink ref="E4" r:id="rId22" xr:uid="{A6B26A25-16E0-4570-92D4-DB73C4DEB10E}"/>
+    <hyperlink ref="E3" r:id="rId23" xr:uid="{F9E21E86-7F38-43FA-B6CF-4557BB7A9270}"/>
+    <hyperlink ref="E2" r:id="rId24" xr:uid="{CAE46EDC-48F3-483B-B594-E4D9AA33AC4D}"/>
+    <hyperlink ref="E8" r:id="rId25" xr:uid="{CFFE7271-7C32-4F5D-A65D-445C1B43731C}"/>
+    <hyperlink ref="E6" r:id="rId26" xr:uid="{7BC2C284-54BB-4F67-BE9E-D2DB6BD658FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
